--- a/planning/BurnDown Chart.xlsx
+++ b/planning/BurnDown Chart.xlsx
@@ -202,8 +202,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.6349518810148731E-2"/>
-          <c:y val="3.75116652085156E-2"/>
-          <c:w val="0.92365048118985127"/>
+          <c:y val="3.7511665208515607E-2"/>
+          <c:w val="0.92365048118985138"/>
           <c:h val="0.8213732137649461"/>
         </c:manualLayout>
       </c:layout>
@@ -312,7 +312,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -328,24 +328,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="13899264"/>
-        <c:axId val="13909376"/>
+        <c:axId val="52192768"/>
+        <c:axId val="52194304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13899264"/>
+        <c:axId val="52192768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13909376"/>
+        <c:crossAx val="52194304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13909376"/>
+        <c:axId val="52194304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -353,7 +353,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13899264"/>
+        <c:crossAx val="52192768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -373,10 +373,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29696336282706931"/>
-          <c:y val="0.94022128331519539"/>
+          <c:x val="0.29696336282706937"/>
+          <c:y val="0.94022128331519561"/>
           <c:w val="0.3765550504640528"/>
-          <c:h val="5.7359964150822611E-2"/>
+          <c:h val="5.7359964150822625E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -384,7 +384,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -730,7 +730,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -764,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -985,24 +985,32 @@
         <v>16</v>
       </c>
       <c r="B13" s="6">
-        <v>0</v>
+        <f>BurnDown[[#This Row],[Sprint-1]]+SUM(B2:B11)</f>
+        <v>2.5</v>
       </c>
       <c r="C13" s="6">
+        <f>SUM(C2:C11)</f>
         <v>0</v>
       </c>
       <c r="D13" s="6">
+        <f>SUM(D2:D11)</f>
         <v>0</v>
       </c>
       <c r="E13" s="7">
+        <f>SUM(E2:E11)</f>
         <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>0</v>
+        <f>SUM(B13:E13)</f>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B13:E13" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/planning/BurnDown Chart.xlsx
+++ b/planning/BurnDown Chart.xlsx
@@ -36,9 +36,6 @@
     <t>Sprint-3</t>
   </si>
   <si>
-    <t>Learning Kiwi</t>
-  </si>
-  <si>
     <t>UI Building</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Actual Effort</t>
+  </si>
+  <si>
+    <t>Learning ElectronJS</t>
   </si>
 </sst>
 </file>
@@ -202,8 +202,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.6349518810148731E-2"/>
-          <c:y val="3.75116652085156E-2"/>
-          <c:w val="0.92365048118985127"/>
+          <c:y val="3.7511665208515607E-2"/>
+          <c:w val="0.92365048118985138"/>
           <c:h val="0.8213732137649461"/>
         </c:manualLayout>
       </c:layout>
@@ -312,7 +312,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -328,24 +328,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="13899264"/>
-        <c:axId val="13909376"/>
+        <c:axId val="62805504"/>
+        <c:axId val="62807040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13899264"/>
+        <c:axId val="62805504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13909376"/>
+        <c:crossAx val="62807040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13909376"/>
+        <c:axId val="62807040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -353,7 +353,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13899264"/>
+        <c:crossAx val="62805504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -373,10 +373,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29696336282706931"/>
-          <c:y val="0.94022128331519539"/>
+          <c:x val="0.29696336282706937"/>
+          <c:y val="0.94022128331519561"/>
           <c:w val="0.3765550504640528"/>
-          <c:h val="5.7359964150822611E-2"/>
+          <c:h val="5.7359964150822625E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -384,7 +384,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -730,7 +730,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -761,10 +761,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -781,10 +781,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3">
         <v>29</v>
@@ -982,27 +982,35 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="6">
-        <v>0</v>
+        <f>SUM(B2:B11)</f>
+        <v>4.5</v>
       </c>
       <c r="C13" s="6">
+        <f>SUM(C2:C11)</f>
         <v>0</v>
       </c>
       <c r="D13" s="6">
+        <f>SUM(D2:D11)</f>
         <v>0</v>
       </c>
       <c r="E13" s="7">
+        <f>SUM(E2:E11)</f>
         <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>0</v>
+        <f>SUM(B13:E13)</f>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B13" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/planning/BurnDown Chart.xlsx
+++ b/planning/BurnDown Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23895" windowHeight="10485"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20730" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,8 +202,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.6349518810148731E-2"/>
-          <c:y val="3.7511665208515607E-2"/>
-          <c:w val="0.92365048118985138"/>
+          <c:y val="3.7511665208515614E-2"/>
+          <c:w val="0.92365048118985149"/>
           <c:h val="0.8213732137649461"/>
         </c:manualLayout>
       </c:layout>
@@ -312,7 +312,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -328,24 +328,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62805504"/>
-        <c:axId val="62807040"/>
+        <c:axId val="65693184"/>
+        <c:axId val="65694720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62805504"/>
+        <c:axId val="65693184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62807040"/>
+        <c:crossAx val="65694720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62807040"/>
+        <c:axId val="65694720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -353,7 +353,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62805504"/>
+        <c:crossAx val="65693184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -373,10 +373,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29696336282706937"/>
-          <c:y val="0.94022128331519561"/>
+          <c:x val="0.29696336282706942"/>
+          <c:y val="0.94022128331519572"/>
           <c:w val="0.3765550504640528"/>
-          <c:h val="5.7359964150822625E-2"/>
+          <c:h val="5.7359964150822645E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -384,7 +384,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -730,7 +730,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -784,7 +784,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -986,7 +986,7 @@
       </c>
       <c r="B13" s="6">
         <f>SUM(B2:B11)</f>
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="C13" s="6">
         <f>SUM(C2:C11)</f>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="F13" s="6">
         <f>SUM(B13:E13)</f>
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/planning/BurnDown Chart.xlsx
+++ b/planning/BurnDown Chart.xlsx
@@ -202,8 +202,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.6349518810148731E-2"/>
-          <c:y val="3.7511665208515614E-2"/>
-          <c:w val="0.92365048118985149"/>
+          <c:y val="3.7511665208515621E-2"/>
+          <c:w val="0.9236504811898516"/>
           <c:h val="0.8213732137649461"/>
         </c:manualLayout>
       </c:layout>
@@ -312,7 +312,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -328,24 +328,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65693184"/>
-        <c:axId val="65694720"/>
+        <c:axId val="47937024"/>
+        <c:axId val="47938560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65693184"/>
+        <c:axId val="47937024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65694720"/>
+        <c:crossAx val="47938560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65694720"/>
+        <c:axId val="47938560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -353,7 +353,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65693184"/>
+        <c:crossAx val="47937024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -373,10 +373,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29696336282706942"/>
-          <c:y val="0.94022128331519572"/>
+          <c:x val="0.29696336282706948"/>
+          <c:y val="0.94022128331519583"/>
           <c:w val="0.3765550504640528"/>
-          <c:h val="5.7359964150822645E-2"/>
+          <c:h val="5.7359964150822673E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -384,7 +384,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -730,7 +730,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -784,7 +784,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -986,7 +986,7 @@
       </c>
       <c r="B13" s="6">
         <f>SUM(B2:B11)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="6">
         <f>SUM(C2:C11)</f>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="F13" s="6">
         <f>SUM(B13:E13)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/planning/BurnDown Chart.xlsx
+++ b/planning/BurnDown Chart.xlsx
@@ -202,7 +202,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.6349518810148731E-2"/>
-          <c:y val="3.7511665208515621E-2"/>
+          <c:y val="3.7511665208515628E-2"/>
           <c:w val="0.9236504811898516"/>
           <c:h val="0.8213732137649461"/>
         </c:manualLayout>
@@ -312,7 +312,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -328,24 +328,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="47937024"/>
-        <c:axId val="47938560"/>
+        <c:axId val="49645056"/>
+        <c:axId val="49646592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47937024"/>
+        <c:axId val="49645056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47938560"/>
+        <c:crossAx val="49646592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47938560"/>
+        <c:axId val="49646592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -353,7 +353,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47937024"/>
+        <c:crossAx val="49645056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -373,10 +373,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29696336282706948"/>
-          <c:y val="0.94022128331519583"/>
+          <c:x val="0.29696336282706953"/>
+          <c:y val="0.94022128331519594"/>
           <c:w val="0.3765550504640528"/>
-          <c:h val="5.7359964150822673E-2"/>
+          <c:h val="5.7359964150822687E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -384,7 +384,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -730,7 +730,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -784,7 +784,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -986,7 +986,7 @@
       </c>
       <c r="B13" s="6">
         <f>SUM(B2:B11)</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="C13" s="6">
         <f>SUM(C2:C11)</f>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="F13" s="6">
         <f>SUM(B13:E13)</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
